--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001984</t>
-  </si>
-  <si>
-    <t>001766</t>
-  </si>
-  <si>
-    <t>501070</t>
-  </si>
-  <si>
-    <t>001141</t>
-  </si>
-  <si>
-    <t>001142</t>
-  </si>
-  <si>
-    <t>上投摩根中国生物医药混合（QDII）</t>
-  </si>
-  <si>
-    <t>上投摩根医疗健康股票</t>
-  </si>
-  <si>
-    <t>广发睿阳三年定期开放混合</t>
-  </si>
-  <si>
-    <t>泰达宏利创盈灵活配置混合 - A</t>
-  </si>
-  <si>
-    <t>泰达宏利创盈灵活配置混合 - B</t>
-  </si>
-  <si>
-    <t>17.44</t>
-  </si>
-  <si>
-    <t>13.65</t>
-  </si>
-  <si>
-    <t>12.40</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>69.30</t>
-  </si>
-  <si>
-    <t>80.46</t>
-  </si>
-  <si>
-    <t>61.84</t>
-  </si>
-  <si>
-    <t>38.52</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.5685</t>
-  </si>
-  <si>
-    <t>0.4177</t>
-  </si>
-  <si>
-    <t>0.3274</t>
-  </si>
-  <si>
-    <t>0.0032</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,167 +446,721 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.32</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.32</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.32</v>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,247 +455,703 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5685</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>61.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3274</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1169,467 +1625,165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>69.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2424</t>
+          <t>0.5685</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0474</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1903</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005433</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信医药先锋股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>501070</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>广发睿阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>61.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2754</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0465</t>
+          <t>0.3274</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1637,37 +1791,37 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1675,198 +1829,44 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006241</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -566,6 +583,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1019,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1151,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +2344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688276-百克生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1284,7 +1889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1568,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1870,7 +2475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
